--- a/University2.xlsx
+++ b/University2.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/095836fd0ba0bc8e/NegarTurkey/University/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/095836fd0ba0bc8e/NegarTurkey/University/NegarUniversity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{CD6A3BCB-C64A-454F-ACDA-165F9B48459C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66FA5ACC-DEBD-4BF5-8E2D-CC39BA4BBCD4}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{CD6A3BCB-C64A-454F-ACDA-165F9B48459C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BB94264-281F-4499-80ED-FFF3E18F47EC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DF75FE83-7288-4B6D-A7D2-0D514968661B}"/>
+    <workbookView xWindow="0" yWindow="3735" windowWidth="21683" windowHeight="11333" activeTab="1" xr2:uid="{DF75FE83-7288-4B6D-A7D2-0D514968661B}"/>
   </bookViews>
   <sheets>
     <sheet name="yildiz" sheetId="1" r:id="rId1"/>
+    <sheet name="ODTU" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -594,6 +595,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -915,22 +920,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7A651C7-3875-4F4F-8703-395AF2A8E295}">
   <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+    <sheetView topLeftCell="A69" workbookViewId="0">
       <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="136.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" customWidth="1"/>
+    <col min="1" max="1" width="136.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="45">
+    <row r="1" spans="1:2" ht="28.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="28.5">
+    <row r="3" spans="1:2" ht="27">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -938,7 +943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="28.5">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -946,7 +951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="28.5">
+    <row r="5" spans="1:2" ht="27">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -954,7 +959,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="28.5">
+    <row r="6" spans="1:2" ht="27">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -962,7 +967,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="171">
+    <row r="7" spans="1:2" ht="162">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -970,7 +975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="42.75">
+    <row r="8" spans="1:2" ht="40.5">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -978,45 +983,45 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="16.5">
+    <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="33">
+    <row r="14" spans="1:2">
       <c r="A14" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="33">
+    <row r="15" spans="1:2">
       <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="33">
+    <row r="16" spans="1:2">
       <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="33">
+    <row r="17" spans="1:1">
       <c r="A17" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="16.5">
+    <row r="18" spans="1:1">
       <c r="A18" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="16.5">
+    <row r="19" spans="1:1">
       <c r="A19" s="7"/>
     </row>
-    <row r="20" spans="1:1" ht="16.5">
+    <row r="20" spans="1:1">
       <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="16.5">
+    <row r="21" spans="1:1">
       <c r="A21" s="6" t="s">
         <v>20</v>
       </c>
@@ -1031,86 +1036,86 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="16.5">
+    <row r="24" spans="1:1">
       <c r="A24" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="16.5">
+    <row r="25" spans="1:1">
       <c r="A25" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="16.5">
+    <row r="26" spans="1:1">
       <c r="A26" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="16.5">
+    <row r="27" spans="1:1">
       <c r="A27" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="16.5">
+    <row r="28" spans="1:1">
       <c r="A28" s="7"/>
     </row>
-    <row r="29" spans="1:1" ht="16.5">
+    <row r="29" spans="1:1">
       <c r="A29" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="66">
+    <row r="30" spans="1:1" ht="28.5">
       <c r="A30" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="16.5">
+    <row r="31" spans="1:1">
       <c r="A31" s="7"/>
     </row>
-    <row r="32" spans="1:1" ht="16.5">
+    <row r="32" spans="1:1">
       <c r="A32" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="82.5">
+    <row r="33" spans="1:1" ht="42.75">
       <c r="A33" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="82.5">
+    <row r="34" spans="1:1" ht="42.75">
       <c r="A34" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="49.5">
+    <row r="35" spans="1:1" ht="28.5">
       <c r="A35" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="16.5">
+    <row r="36" spans="1:1">
       <c r="A36" s="7"/>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" ht="15">
       <c r="A38" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="30">
+    <row r="39" spans="1:1" ht="15">
       <c r="A39" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" ht="15">
       <c r="A40" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" ht="15">
       <c r="A41" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="15.75">
+    <row r="44" spans="1:1" ht="15">
       <c r="A44" s="10" t="s">
         <v>37</v>
       </c>
@@ -1118,72 +1123,72 @@
     <row r="45" spans="1:1">
       <c r="A45" s="4"/>
     </row>
-    <row r="46" spans="1:1" ht="30">
+    <row r="46" spans="1:1" ht="15">
       <c r="A46" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="30">
+    <row r="47" spans="1:1" ht="15">
       <c r="A47" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" ht="15">
       <c r="A48" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" ht="15">
       <c r="A49" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" ht="15">
       <c r="A50" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" ht="15">
       <c r="A51" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="30">
+    <row r="52" spans="1:1" ht="15">
       <c r="A52" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" ht="15">
       <c r="A53" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" ht="15">
       <c r="A54" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" ht="15">
       <c r="A55" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" ht="15">
       <c r="A56" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="15.75">
+    <row r="58" spans="1:1" ht="15.4">
       <c r="A58" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="19.5">
+    <row r="62" spans="1:1" ht="18.75">
       <c r="A62" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="45">
+    <row r="64" spans="1:1" ht="30">
       <c r="A64" s="9" t="s">
         <v>51</v>
       </c>
@@ -1191,27 +1196,27 @@
     <row r="65" spans="1:1">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" ht="15">
       <c r="A66" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" ht="15">
       <c r="A67" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" ht="15">
       <c r="A68" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" ht="15">
       <c r="A69" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="45">
+    <row r="70" spans="1:1" ht="30">
       <c r="A70" s="9" t="s">
         <v>56</v>
       </c>
@@ -1219,17 +1224,17 @@
     <row r="71" spans="1:1">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" ht="15">
       <c r="A72" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" ht="15">
       <c r="A73" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" ht="15">
       <c r="A74" s="9" t="s">
         <v>59</v>
       </c>
@@ -1239,27 +1244,27 @@
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" ht="15">
       <c r="A76" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" ht="15">
       <c r="A77" s="9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" ht="15">
       <c r="A78" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" ht="15">
       <c r="A79" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" ht="15">
       <c r="A80" s="9" t="s">
         <v>65</v>
       </c>
@@ -1272,4 +1277,16 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A28F689-14E1-40F2-BFC2-BB2F88F8EE45}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>